--- a/Tracer/test/result.xlsx
+++ b/Tracer/test/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>搜索區塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,34 @@
   </si>
   <si>
     <t>Binary Search Time(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000-10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,8 +109,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -161,34 +192,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>工作表1!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50-50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100-100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>500-500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>1000-1000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5000</c:v>
+                  <c:v>5000-5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>10000-10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -266,34 +296,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>工作表1!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50-50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100-100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>500-500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>1000-1000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5000</c:v>
+                  <c:v>5000-5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>10000-10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -333,7 +362,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -374,12 +402,18 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                     <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                   </a:rPr>
                   <a:t>搜索之區塊高度</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
                   <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                   <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 </a:endParaRPr>
@@ -502,6 +536,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
@@ -624,6 +661,46 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -688,6 +765,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1238,16 +1316,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1267,6 +1345,63 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0134</cdr:x>
+      <cdr:y>0.84029</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31303</cdr:x>
+      <cdr:y>0.914</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文字方塊 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="104776" y="3257551"/>
+          <a:ext cx="2343149" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:rPr>
+            <a:t>註：每相同的區塊高度皆存有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:rPr>
+            <a:t>筆資料</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1535,11 +1670,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1555,8 +1691,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>39.587730999999998</v>
@@ -1566,8 +1702,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>50</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>73.458107999999996</v>
@@ -1577,8 +1713,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>100</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>98.101949000000005</v>
@@ -1588,8 +1724,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>500</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>332.76817</v>
@@ -1599,8 +1735,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1000</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>603.21840699999996</v>
@@ -1610,8 +1746,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5000</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2976.6418600000002</v>
@@ -1621,8 +1757,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10000</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4936.1492459999999</v>
